--- a/biology/Botanique/Plagiosiphon_discifer/Plagiosiphon_discifer.xlsx
+++ b/biology/Botanique/Plagiosiphon_discifer/Plagiosiphon_discifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plagiosiphon discifer Harms est une espèce de plantes du genre Plagiosiphon et de la famille des Fabaceae (selon APGIII)[2]. Décrite par Hermann Harms en 1897, c'est une plante endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plagiosiphon discifer Harms est une espèce de plantes du genre Plagiosiphon et de la famille des Fabaceae (selon APGIII). Décrite par Hermann Harms en 1897, c'est une plante endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste touffu d'environ 3 à 5 m de hauteur, à fruit inconnu[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste touffu d'environ 3 à 5 m de hauteur, à fruit inconnu. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est connue qu'à travers le spécimen observé par Alois Staudt en 1896 à Lolodorf, au sud-ouest du Cameroun[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est connue qu'à travers le spécimen observé par Alois Staudt en 1896 à Lolodorf, au sud-ouest du Cameroun.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le synonyme homotypique de cette espèce est :
-Hymenostegia discifer (Harms) Pellegr[3].</t>
+Hymenostegia discifer (Harms) Pellegr.</t>
         </is>
       </c>
     </row>
